--- a/CT.xlsx
+++ b/CT.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>1991</t>
   </si>
@@ -117,13 +118,22 @@
   </si>
   <si>
     <t>growth</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>congrowth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +144,28 @@
     <font>
       <sz val="8"/>
       <color indexed="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -179,11 +211,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,9 +515,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>183410</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B3/B2</f>
+        <v>1.1542882067499045</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>211708</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C31" si="0">B4/B3</f>
+        <v>1.1349689194550985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>240282</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1231552925312758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>269874</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1441265183011331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>308770</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1453768176960197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>353658</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1226269446753643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>397026</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1215159712462157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>445271</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0873176110728073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>484151</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0931920000165238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>529270</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1283957148525328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>597226</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1015813109275217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>657893</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1245643288498282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>739843</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0850896744309266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>802796</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.137942889600845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>913536</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1120262365139415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1015876</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>1.119936882060409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1137717</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1399987870445814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1296996</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0962215766278385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1421795</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0495669206882849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1492269</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0868251890242309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1621835.5379999999</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1105265921235474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1801091.493</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1013345089404629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1983604.2150000001</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0809541156374283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2144185.14</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>1.064290645163225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2282036.1860000002</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0605172511493206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2420138.7429999998</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0678614511151605</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2584372.87</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0666187058371341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2756540.446</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0596594514833395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2920994.1370000001</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0471157227796928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3058618.8870000001</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
